--- a/DDAf_2024_Tableau_annexe_Tab31.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab31.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85860D9B-3688-4AA5-857A-62C7406001C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2CE9FF3-7783-4645-B0E1-6F687621B267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{8826AAB8-8942-479A-A8E3-F13C4F553358}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0CD11179-AECC-4A4A-A2C2-EAD0930DCD98}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab31" sheetId="1" r:id="rId1"/>
@@ -1395,7 +1395,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB706824-24FF-431C-A41A-6D0BA30F2A34}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60556A0E-69DB-4CDE-8B3D-6A033577482A}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1403,15 +1403,15 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" style="77" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="77" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1424,7 +1424,7 @@
       <c r="I1" s="4"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" ht="105.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>11</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>14</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>16</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>32.9</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>18</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>20</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>30.1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>22</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>24.6</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>24</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>26</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>28</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>33.700000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>30</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>47.4</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
         <v>32</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>28.987500000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>34</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>36</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>53.3</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>38</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>40</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>42</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>44</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>46</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>48</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>50</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="s">
         <v>32</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>36.233333333333299</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>53</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>55</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>57</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>59</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>61</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>63</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>65</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>67</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>69</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>71</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>73</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>38.1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>75</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>77</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
         <v>79</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="28" t="s">
         <v>32</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>25.32</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>82</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>84</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>86</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>88</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>90</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>41.7</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
         <v>92</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>58.8</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="28" t="s">
         <v>32</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>43.7</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>95</v>
       </c>
@@ -2864,7 +2864,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>97</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>99</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>101</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>66.900000000000006</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>103</v>
       </c>
@@ -2968,13 +2968,13 @@
         <v>104</v>
       </c>
       <c r="C50" s="21">
-        <v>79.5</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="D50" s="22">
-        <v>86.8</v>
+        <v>86.9</v>
       </c>
       <c r="E50" s="23">
-        <v>72.599999999999994</v>
+        <v>76</v>
       </c>
       <c r="F50" s="22">
         <v>40.013339996337898</v>
@@ -2992,7 +2992,7 @@
         <v>34.700000000000003</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>105</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>107</v>
       </c>
@@ -3056,7 +3056,7 @@
         <v>38.799999999999997</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>109</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>111</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>43.1</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>113</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>63.7</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>115</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
         <v>117</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
         <v>119</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>55.2</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
         <v>121</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>42.4</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="11" t="s">
         <v>123</v>
       </c>
@@ -3312,7 +3312,7 @@
         <v>50.6</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="28" t="s">
         <v>32</v>
       </c>
@@ -3320,13 +3320,13 @@
         <v>125</v>
       </c>
       <c r="C61" s="30">
-        <v>87.5</v>
+        <v>87.65</v>
       </c>
       <c r="D61" s="31">
-        <v>90.978571428571399</v>
+        <v>90.985714285714295</v>
       </c>
       <c r="E61" s="32">
-        <v>84.621428571428595</v>
+        <v>84.8642857142857</v>
       </c>
       <c r="F61" s="31">
         <v>47.698671402240301</v>
@@ -3344,7 +3344,7 @@
         <v>47.854545454545502</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="46" t="s">
         <v>32</v>
       </c>
@@ -3352,13 +3352,13 @@
         <v>126</v>
       </c>
       <c r="C62" s="48">
-        <v>81.846341463414703</v>
+        <v>81.897560975609807</v>
       </c>
       <c r="D62" s="49">
-        <v>83.919512195121996</v>
+        <v>83.921951219512195</v>
       </c>
       <c r="E62" s="50">
-        <v>79.831707317073196</v>
+        <v>79.914634146341498</v>
       </c>
       <c r="F62" s="49">
         <v>33.881975562176599</v>
@@ -3376,7 +3376,7 @@
         <v>37.690322580645201</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="46" t="s">
         <v>32</v>
       </c>
@@ -3384,13 +3384,13 @@
         <v>127</v>
       </c>
       <c r="C63" s="52">
-        <v>40.772093023255799</v>
+        <v>40.762790697674397</v>
       </c>
       <c r="D63" s="53">
-        <v>40.3244186046512</v>
+        <v>40.327906976744202</v>
       </c>
       <c r="E63" s="54">
-        <v>41.033720930232498</v>
+        <v>41.0162790697674</v>
       </c>
       <c r="F63" s="53">
         <v>16.172790904897099</v>
@@ -3408,7 +3408,7 @@
         <v>23.4142857142857</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="55" t="s">
         <v>32</v>
       </c>
@@ -3416,13 +3416,13 @@
         <v>128</v>
       </c>
       <c r="C64" s="57">
-        <v>56.395454545454498</v>
+        <v>56.359090909090902</v>
       </c>
       <c r="D64" s="58">
-        <v>54.718181818181797</v>
+        <v>54.731818181818198</v>
       </c>
       <c r="E64" s="59">
-        <v>57.640909090909098</v>
+        <v>57.572727272727299</v>
       </c>
       <c r="F64" s="58">
         <v>29.993575029329001</v>
@@ -3440,7 +3440,7 @@
         <v>39.553846153846202</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="55" t="s">
         <v>32</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>18.983333333333299</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="55" t="s">
         <v>32</v>
       </c>
@@ -3480,13 +3480,13 @@
         <v>130</v>
       </c>
       <c r="C66" s="64">
-        <v>54.032283464566902</v>
+        <v>54.042519685039402</v>
       </c>
       <c r="D66" s="65">
-        <v>54.398425196850397</v>
+        <v>54.4015748031496</v>
       </c>
       <c r="E66" s="66">
-        <v>53.559055118110201</v>
+        <v>53.574015748031499</v>
       </c>
       <c r="F66" s="65">
         <v>17.0899671532576</v>
@@ -3504,7 +3504,7 @@
         <v>27.796039603960399</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="55" t="s">
         <v>32</v>
       </c>
@@ -3536,7 +3536,7 @@
         <v>30.6272727272727</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="55" t="s">
         <v>32</v>
       </c>
@@ -3544,13 +3544,13 @@
         <v>132</v>
       </c>
       <c r="C68" s="60">
-        <v>83.834999999999994</v>
+        <v>83.94</v>
       </c>
       <c r="D68" s="61">
-        <v>86.094999999999999</v>
+        <v>86.1</v>
       </c>
       <c r="E68" s="62">
-        <v>81.745000000000005</v>
+        <v>81.915000000000006</v>
       </c>
       <c r="F68" s="61">
         <v>37.739487254939398</v>
@@ -3568,7 +3568,7 @@
         <v>44.256250000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="55" t="s">
         <v>32</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>28.175000000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="55" t="s">
         <v>32</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>30.574999999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="55" t="s">
         <v>32</v>
       </c>
@@ -3640,13 +3640,13 @@
         <v>135</v>
       </c>
       <c r="C71" s="60">
-        <v>87.5</v>
+        <v>87.65</v>
       </c>
       <c r="D71" s="61">
-        <v>90.978571428571399</v>
+        <v>90.985714285714295</v>
       </c>
       <c r="E71" s="62">
-        <v>84.621428571428595</v>
+        <v>84.8642857142857</v>
       </c>
       <c r="F71" s="61">
         <v>47.698671402240301</v>
@@ -3664,7 +3664,7 @@
         <v>47.854545454545502</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="55" t="s">
         <v>32</v>
       </c>
@@ -3696,7 +3696,7 @@
         <v>28.25</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="55" t="s">
         <v>32</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>28.987500000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="55" t="s">
         <v>32</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>51.233333333333299</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="55" t="s">
         <v>32</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>24.6</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="55" t="s">
         <v>32</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>15.9625</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="55" t="s">
         <v>32</v>
       </c>
@@ -3856,7 +3856,7 @@
         <v>37.362499999999997</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="55" t="s">
         <v>32</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>16.195652173913</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="55" t="s">
         <v>32</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>16.495000000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="55" t="s">
         <v>32</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>40.766666666666701</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="55" t="s">
         <v>32</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>20.5555555555556</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="55" t="s">
         <v>32</v>
       </c>
@@ -3992,13 +3992,13 @@
         <v>144</v>
       </c>
       <c r="C82" s="60">
-        <v>81.494594594594602</v>
+        <v>81.5513513513514</v>
       </c>
       <c r="D82" s="61">
-        <v>83.529729729729794</v>
+        <v>83.5324324324325</v>
       </c>
       <c r="E82" s="62">
-        <v>79.491891891891896</v>
+        <v>79.583783783783801</v>
       </c>
       <c r="F82" s="61">
         <v>34.190612861200997</v>
@@ -4016,7 +4016,7 @@
         <v>37.360714285714302</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="55" t="s">
         <v>32</v>
       </c>
@@ -4024,13 +4024,13 @@
         <v>145</v>
       </c>
       <c r="C83" s="52">
-        <v>38.802564102564098</v>
+        <v>38.792307692307702</v>
       </c>
       <c r="D83" s="53">
-        <v>38.725641025641004</v>
+        <v>38.729487179487201</v>
       </c>
       <c r="E83" s="54">
-        <v>38.919230769230801</v>
+        <v>38.9</v>
       </c>
       <c r="F83" s="53">
         <v>15.1787311224855</v>
@@ -4048,7 +4048,7 @@
         <v>23.836065573770501</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="55" t="s">
         <v>32</v>
       </c>
@@ -4056,13 +4056,13 @@
         <v>146</v>
       </c>
       <c r="C84" s="68">
-        <v>90.966666666666697</v>
+        <v>91.0833333333333</v>
       </c>
       <c r="D84" s="69">
-        <v>93.933333333333394</v>
+        <v>93.938888888888897</v>
       </c>
       <c r="E84" s="70">
-        <v>88.4166666666667</v>
+        <v>88.605555555555597</v>
       </c>
       <c r="F84" s="69">
         <v>30.342157197046099</v>
@@ -4080,7 +4080,7 @@
         <v>35.507142857142902</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="55" t="s">
         <v>32</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="55" t="s">
         <v>32</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>43.88</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="55" t="s">
         <v>32</v>
       </c>
@@ -4176,7 +4176,7 @@
         <v>24.64</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="55" t="s">
         <v>32</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>6.55</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="55" t="s">
         <v>32</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>28.376923076923099</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="55" t="s">
         <v>32</v>
       </c>
@@ -4248,13 +4248,13 @@
         <v>152</v>
       </c>
       <c r="C90" s="64">
-        <v>14.0648648648649</v>
+        <v>14.0432432432432</v>
       </c>
       <c r="D90" s="65">
-        <v>13.3918918918919</v>
+        <v>13.4</v>
       </c>
       <c r="E90" s="66">
-        <v>14.5648648648649</v>
+        <v>14.524324324324301</v>
       </c>
       <c r="F90" s="65">
         <v>13.2631575749724</v>
@@ -4272,7 +4272,7 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="55" t="s">
         <v>32</v>
       </c>
@@ -4280,13 +4280,13 @@
         <v>153</v>
       </c>
       <c r="C91" s="60">
-        <v>88.962962962963005</v>
+        <v>89.040740740740802</v>
       </c>
       <c r="D91" s="61">
-        <v>92.244444444444497</v>
+        <v>92.248148148148204</v>
       </c>
       <c r="E91" s="62">
-        <v>86.425925925925895</v>
+        <v>86.551851851851893</v>
       </c>
       <c r="F91" s="61">
         <v>33.564484094740003</v>
@@ -4304,7 +4304,7 @@
         <v>38.909999999999997</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="55" t="s">
         <v>32</v>
       </c>
@@ -4336,7 +4336,7 @@
         <v>18.850000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="55" t="s">
         <v>32</v>
       </c>
@@ -4368,7 +4368,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="55" t="s">
         <v>32</v>
       </c>
@@ -4400,7 +4400,7 @@
         <v>25.82</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="55" t="s">
         <v>32</v>
       </c>
@@ -4432,7 +4432,7 @@
         <v>37.233333333333299</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="55" t="s">
         <v>32</v>
       </c>
@@ -4464,7 +4464,7 @@
         <v>25.264285714285698</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="55" t="s">
         <v>32</v>
       </c>
@@ -4472,13 +4472,13 @@
         <v>159</v>
       </c>
       <c r="C97" s="68">
-        <v>86.888461538461598</v>
+        <v>86.969230769230805</v>
       </c>
       <c r="D97" s="69">
-        <v>90.834615384615404</v>
+        <v>90.838461538461601</v>
       </c>
       <c r="E97" s="70">
-        <v>83.742307692307705</v>
+        <v>83.873076923076894</v>
       </c>
       <c r="F97" s="69">
         <v>41.275602040039203</v>
@@ -4496,7 +4496,7 @@
         <v>43.2789473684211</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="55" t="s">
         <v>32</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>25.21</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="72"/>
       <c r="B99" s="73"/>
       <c r="C99" s="53"/>
@@ -4540,7 +4540,7 @@
       <c r="I99" s="53"/>
       <c r="J99" s="53"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>161</v>
       </c>
@@ -4553,7 +4553,7 @@
       <c r="I100" s="74"/>
       <c r="J100" s="74"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>162</v>
       </c>
@@ -4566,7 +4566,7 @@
       <c r="I101" s="74"/>
       <c r="J101" s="74"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>163</v>
       </c>
@@ -4579,7 +4579,7 @@
       <c r="I102" s="74"/>
       <c r="J102" s="74"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>164</v>
       </c>
@@ -4592,7 +4592,7 @@
       <c r="I103" s="74"/>
       <c r="J103" s="74"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>165</v>
       </c>
@@ -4605,7 +4605,7 @@
       <c r="I104" s="74"/>
       <c r="J104" s="74"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C105" s="74"/>
       <c r="D105" s="74"/>
       <c r="E105" s="74"/>
@@ -4615,7 +4615,7 @@
       <c r="I105" s="74"/>
       <c r="J105" s="74"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B106" s="75"/>
       <c r="C106" s="74"/>
       <c r="D106" s="74"/>
@@ -4626,7 +4626,7 @@
       <c r="I106" s="74"/>
       <c r="J106" s="74"/>
     </row>
-    <row r="107" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B107" s="76" t="s">
         <v>166</v>
       </c>
@@ -4639,7 +4639,7 @@
       <c r="I107" s="74"/>
       <c r="J107" s="74"/>
     </row>
-    <row r="108" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B108" s="76"/>
       <c r="C108" s="74"/>
       <c r="D108" s="74"/>
@@ -4650,7 +4650,7 @@
       <c r="I108" s="74"/>
       <c r="J108" s="74"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
         <v>168</v>
       </c>
@@ -4663,7 +4663,7 @@
       <c r="I109" s="74"/>
       <c r="J109" s="74"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
         <v>169</v>
       </c>
@@ -4676,7 +4676,7 @@
       <c r="I110" s="74"/>
       <c r="J110" s="74"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B111" s="78" t="s">
         <v>170</v>
       </c>
@@ -4689,7 +4689,7 @@
       <c r="I111" s="74"/>
       <c r="J111" s="74"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B112" s="2" t="s">
         <v>167</v>
       </c>
@@ -4702,7 +4702,7 @@
       <c r="I112" s="74"/>
       <c r="J112" s="74"/>
     </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B113" s="2"/>
       <c r="C113" s="74"/>
       <c r="D113" s="74"/>
@@ -4713,7 +4713,7 @@
       <c r="I113" s="74"/>
       <c r="J113" s="74"/>
     </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
       <c r="C114" s="74"/>
       <c r="D114" s="74"/>
@@ -4726,11 +4726,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{CBEFA053-FCEC-40AF-93E6-1DB0DF0FE9E3}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{F80C7E00-1E5B-4080-A19A-D76FB5B376E4}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{ED1EC3F8-28EA-46DD-8ED3-676C5A1F9232}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{22F36D7C-CA94-48D1-9D6C-A3224EC998DF}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{0BAFE787-DE46-41D5-9CD1-75BCB382C488}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{E11648D1-94DF-4E75-BEFA-B452E09A3FE8}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{FC6D5985-626D-4DAB-B1FC-806F7488170F}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{D36EBA10-F63E-46F1-80F3-DD377D0085A2}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{686643ED-AD33-4229-83B0-B0439CCF63FB}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{5F76CAEE-2FA1-42BD-B667-9B9440E60A3D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="54" fitToHeight="0" orientation="portrait" r:id="rId6"/>

--- a/DDAf_2024_Tableau_annexe_Tab31.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab31.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2CE9FF3-7783-4645-B0E1-6F687621B267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1DF59B1-7918-4BCA-835F-CA124DC000E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0CD11179-AECC-4A4A-A2C2-EAD0930DCD98}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{AD7E158F-456D-4E1F-866B-6F9E60506CD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab31" sheetId="1" r:id="rId1"/>
@@ -561,7 +561,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -686,13 +686,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFD42C2D"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -856,7 +849,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1076,10 +1069,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1395,7 +1387,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60556A0E-69DB-4CDE-8B3D-6A033577482A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F59DFE7-7E98-4ED5-AFF3-1F79F669902E}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4616,7 +4608,6 @@
       <c r="J105" s="74"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B106" s="75"/>
       <c r="C106" s="74"/>
       <c r="D106" s="74"/>
       <c r="E106" s="74"/>
@@ -4627,7 +4618,7 @@
       <c r="J106" s="74"/>
     </row>
     <row r="107" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B107" s="76" t="s">
+      <c r="B107" s="75" t="s">
         <v>166</v>
       </c>
       <c r="C107" s="74"/>
@@ -4640,7 +4631,7 @@
       <c r="J107" s="74"/>
     </row>
     <row r="108" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B108" s="76"/>
+      <c r="B108" s="75"/>
       <c r="C108" s="74"/>
       <c r="D108" s="74"/>
       <c r="E108" s="74"/>
@@ -4677,7 +4668,7 @@
       <c r="J110" s="74"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B111" s="78" t="s">
+      <c r="B111" s="76" t="s">
         <v>170</v>
       </c>
       <c r="C111" s="74"/>
@@ -4690,7 +4681,7 @@
       <c r="J111" s="74"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="76" t="s">
         <v>167</v>
       </c>
       <c r="C112" s="74"/>
@@ -4726,11 +4717,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{E11648D1-94DF-4E75-BEFA-B452E09A3FE8}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{FC6D5985-626D-4DAB-B1FC-806F7488170F}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{D36EBA10-F63E-46F1-80F3-DD377D0085A2}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{686643ED-AD33-4229-83B0-B0439CCF63FB}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{5F76CAEE-2FA1-42BD-B667-9B9440E60A3D}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{6A5F05FD-AB0F-4DA7-A309-CCC02F1E58FD}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{B3736947-8EBA-4CEC-9A3B-C1DDC811DD29}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{18A240CC-2882-48A7-8A97-616593C907C0}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{F8197110-0E2C-49FB-8152-BC40B5F4172D}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{1C107FDE-9299-4133-BFC6-00F8DE85B0CF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="54" fitToHeight="0" orientation="portrait" r:id="rId6"/>

--- a/DDAf_2024_Tableau_annexe_Tab31.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab31.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1DF59B1-7918-4BCA-835F-CA124DC000E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{54402A2E-34AA-4D6F-BD36-D20782944B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{AD7E158F-456D-4E1F-866B-6F9E60506CD0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0B8EA12D-3096-4530-B45A-6AAFE753DE83}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab31" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="173">
   <si>
     <t>Tableau 31 : Économies informelles et emploi informel</t>
   </si>
@@ -456,13 +456,19 @@
     <t>UMA</t>
   </si>
   <si>
+    <t>PALOP</t>
+  </si>
+  <si>
     <t>ASEAN</t>
   </si>
   <si>
     <t>MERCOSUR</t>
   </si>
   <si>
-    <t>EU28</t>
+    <t>EU27</t>
+  </si>
+  <si>
+    <t>OCDE</t>
   </si>
   <si>
     <t xml:space="preserve">Afrique, pays riches en ressources </t>
@@ -718,7 +724,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -843,13 +849,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD42C2D"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD42C2D"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD42C2D"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD42C2D"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD42C2D"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD42C2D"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD42C2D"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD42C2D"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1047,17 +1090,26 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1387,7 +1439,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F59DFE7-7E98-4ED5-AFF3-1F79F669902E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B22D6B9-7782-4B5A-981D-3F08ED0A5E24}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1399,7 +1451,7 @@
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="77" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="80" bestFit="1" customWidth="1"/>
     <col min="4" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3500,7 +3552,7 @@
       <c r="A67" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="B67" s="51" t="s">
+      <c r="B67" s="67" t="s">
         <v>131</v>
       </c>
       <c r="C67" s="60">
@@ -3532,7 +3584,7 @@
       <c r="A68" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="B68" s="51" t="s">
+      <c r="B68" s="67" t="s">
         <v>132</v>
       </c>
       <c r="C68" s="60">
@@ -3564,7 +3616,7 @@
       <c r="A69" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="B69" s="51" t="s">
+      <c r="B69" s="67" t="s">
         <v>133</v>
       </c>
       <c r="C69" s="60">
@@ -3596,7 +3648,7 @@
       <c r="A70" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="B70" s="51" t="s">
+      <c r="B70" s="67" t="s">
         <v>134</v>
       </c>
       <c r="C70" s="60">
@@ -3628,7 +3680,7 @@
       <c r="A71" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="B71" s="51" t="s">
+      <c r="B71" s="67" t="s">
         <v>135</v>
       </c>
       <c r="C71" s="60">
@@ -3660,7 +3712,7 @@
       <c r="A72" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="B72" s="51" t="s">
+      <c r="B72" s="67" t="s">
         <v>136</v>
       </c>
       <c r="C72" s="60">
@@ -3692,7 +3744,7 @@
       <c r="A73" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="B73" s="51" t="s">
+      <c r="B73" s="67" t="s">
         <v>137</v>
       </c>
       <c r="C73" s="60">
@@ -3724,8 +3776,8 @@
       <c r="A74" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="B74" s="51" t="s">
-        <v>137</v>
+      <c r="B74" s="67" t="s">
+        <v>138</v>
       </c>
       <c r="C74" s="60">
         <v>63.15</v>
@@ -3756,8 +3808,8 @@
       <c r="A75" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="B75" s="51" t="s">
-        <v>138</v>
+      <c r="B75" s="67" t="s">
+        <v>139</v>
       </c>
       <c r="C75" s="52">
         <v>86.15</v>
@@ -3788,31 +3840,31 @@
       <c r="A76" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="B76" s="67" t="s">
-        <v>139</v>
-      </c>
-      <c r="C76" s="68">
+      <c r="B76" s="68" t="s">
+        <v>140</v>
+      </c>
+      <c r="C76" s="69">
         <v>72.242857142857204</v>
       </c>
-      <c r="D76" s="69">
+      <c r="D76" s="70">
         <v>72</v>
       </c>
-      <c r="E76" s="70">
+      <c r="E76" s="71">
         <v>72.442857142857207</v>
       </c>
-      <c r="F76" s="69">
+      <c r="F76" s="70">
         <v>22.250867367464402</v>
       </c>
-      <c r="G76" s="70">
+      <c r="G76" s="71">
         <v>26.781940945778999</v>
       </c>
-      <c r="H76" s="68">
+      <c r="H76" s="69">
         <v>44.9375</v>
       </c>
-      <c r="I76" s="69">
+      <c r="I76" s="70">
         <v>78.737499999999997</v>
       </c>
-      <c r="J76" s="70">
+      <c r="J76" s="71">
         <v>15.9625</v>
       </c>
     </row>
@@ -3820,8 +3872,8 @@
       <c r="A77" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="B77" s="51" t="s">
-        <v>140</v>
+      <c r="B77" s="67" t="s">
+        <v>141</v>
       </c>
       <c r="C77" s="60">
         <v>54.358333333333299</v>
@@ -3852,8 +3904,8 @@
       <c r="A78" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="B78" s="51" t="s">
-        <v>140</v>
+      <c r="B78" s="67" t="s">
+        <v>142</v>
       </c>
       <c r="C78" s="60">
         <v>7.4346153846153902</v>
@@ -3884,8 +3936,8 @@
       <c r="A79" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="B79" s="63" t="s">
-        <v>141</v>
+      <c r="B79" s="72" t="s">
+        <v>143</v>
       </c>
       <c r="C79" s="64">
         <v>13.9848484848485</v>
@@ -3917,7 +3969,7 @@
         <v>32</v>
       </c>
       <c r="B80" s="51" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C80" s="60">
         <v>85.1</v>
@@ -3949,7 +4001,7 @@
         <v>32</v>
       </c>
       <c r="B81" s="51" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C81" s="60">
         <v>59.975000000000001</v>
@@ -3981,7 +4033,7 @@
         <v>32</v>
       </c>
       <c r="B82" s="51" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C82" s="60">
         <v>81.5513513513514</v>
@@ -4013,7 +4065,7 @@
         <v>32</v>
       </c>
       <c r="B83" s="51" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C83" s="52">
         <v>38.792307692307702</v>
@@ -4044,31 +4096,31 @@
       <c r="A84" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="B84" s="67" t="s">
-        <v>146</v>
-      </c>
-      <c r="C84" s="68">
+      <c r="B84" s="73" t="s">
+        <v>148</v>
+      </c>
+      <c r="C84" s="69">
         <v>91.0833333333333</v>
       </c>
-      <c r="D84" s="69">
+      <c r="D84" s="70">
         <v>93.938888888888897</v>
       </c>
-      <c r="E84" s="70">
+      <c r="E84" s="71">
         <v>88.605555555555597</v>
       </c>
-      <c r="F84" s="69">
+      <c r="F84" s="70">
         <v>30.342157197046099</v>
       </c>
-      <c r="G84" s="70">
+      <c r="G84" s="71">
         <v>38.667397611857403</v>
       </c>
-      <c r="H84" s="68">
+      <c r="H84" s="69">
         <v>64.971428571428604</v>
       </c>
-      <c r="I84" s="69">
+      <c r="I84" s="70">
         <v>84.628571428571405</v>
       </c>
-      <c r="J84" s="70">
+      <c r="J84" s="71">
         <v>35.507142857142902</v>
       </c>
     </row>
@@ -4076,8 +4128,8 @@
       <c r="A85" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="B85" s="71" t="s">
-        <v>147</v>
+      <c r="B85" s="74" t="s">
+        <v>149</v>
       </c>
       <c r="C85" s="60">
         <v>81.900000000000006</v>
@@ -4109,7 +4161,7 @@
         <v>32</v>
       </c>
       <c r="B86" s="51" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C86" s="60">
         <v>79.652631578947407</v>
@@ -4141,7 +4193,7 @@
         <v>32</v>
       </c>
       <c r="B87" s="51" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C87" s="60">
         <v>73.255555555555603</v>
@@ -4173,7 +4225,7 @@
         <v>32</v>
       </c>
       <c r="B88" s="51" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C88" s="60">
         <v>51.225000000000001</v>
@@ -4205,7 +4257,7 @@
         <v>32</v>
       </c>
       <c r="B89" s="51" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C89" s="60">
         <v>51.617857142857098</v>
@@ -4237,7 +4289,7 @@
         <v>32</v>
       </c>
       <c r="B90" s="63" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C90" s="64">
         <v>14.0432432432432</v>
@@ -4269,7 +4321,7 @@
         <v>32</v>
       </c>
       <c r="B91" s="51" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C91" s="60">
         <v>89.040740740740802</v>
@@ -4301,7 +4353,7 @@
         <v>32</v>
       </c>
       <c r="B92" s="51" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C92" s="60">
         <v>83.612499999999997</v>
@@ -4333,7 +4385,7 @@
         <v>32</v>
       </c>
       <c r="B93" s="51" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C93" s="60">
         <v>69.650000000000006</v>
@@ -4365,7 +4417,7 @@
         <v>32</v>
       </c>
       <c r="B94" s="51" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C94" s="60">
         <v>58.516666666666701</v>
@@ -4397,7 +4449,7 @@
         <v>32</v>
       </c>
       <c r="B95" s="51" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C95" s="60">
         <v>85.415384615384596</v>
@@ -4429,7 +4481,7 @@
         <v>32</v>
       </c>
       <c r="B96" s="51" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C96" s="52">
         <v>63.4</v>
@@ -4460,31 +4512,31 @@
       <c r="A97" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="B97" s="67" t="s">
-        <v>159</v>
-      </c>
-      <c r="C97" s="68">
+      <c r="B97" s="73" t="s">
+        <v>161</v>
+      </c>
+      <c r="C97" s="69">
         <v>86.969230769230805</v>
       </c>
-      <c r="D97" s="69">
+      <c r="D97" s="70">
         <v>90.838461538461601</v>
       </c>
-      <c r="E97" s="70">
+      <c r="E97" s="71">
         <v>83.873076923076894</v>
       </c>
-      <c r="F97" s="69">
+      <c r="F97" s="70">
         <v>41.275602040039203</v>
       </c>
-      <c r="G97" s="70">
+      <c r="G97" s="71">
         <v>45.815295218406</v>
       </c>
-      <c r="H97" s="68">
+      <c r="H97" s="69">
         <v>67.868421052631604</v>
       </c>
-      <c r="I97" s="69">
+      <c r="I97" s="70">
         <v>86.289473684210506</v>
       </c>
-      <c r="J97" s="70">
+      <c r="J97" s="71">
         <v>43.2789473684211</v>
       </c>
     </row>
@@ -4493,7 +4545,7 @@
         <v>32</v>
       </c>
       <c r="B98" s="63" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C98" s="64">
         <v>80.922222222222302</v>
@@ -4521,8 +4573,8 @@
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="72"/>
-      <c r="B99" s="73"/>
+      <c r="A99" s="75"/>
+      <c r="B99" s="76"/>
       <c r="C99" s="53"/>
       <c r="D99" s="53"/>
       <c r="E99" s="53"/>
@@ -4534,194 +4586,194 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C100" s="74"/>
-      <c r="D100" s="74"/>
-      <c r="E100" s="74"/>
-      <c r="F100" s="74"/>
-      <c r="G100" s="74"/>
-      <c r="H100" s="74"/>
-      <c r="I100" s="74"/>
-      <c r="J100" s="74"/>
+        <v>163</v>
+      </c>
+      <c r="C100" s="77"/>
+      <c r="D100" s="77"/>
+      <c r="E100" s="77"/>
+      <c r="F100" s="77"/>
+      <c r="G100" s="77"/>
+      <c r="H100" s="77"/>
+      <c r="I100" s="77"/>
+      <c r="J100" s="77"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C101" s="74"/>
-      <c r="D101" s="74"/>
-      <c r="E101" s="74"/>
-      <c r="F101" s="74"/>
-      <c r="G101" s="74"/>
-      <c r="H101" s="74"/>
-      <c r="I101" s="74"/>
-      <c r="J101" s="74"/>
+        <v>164</v>
+      </c>
+      <c r="C101" s="77"/>
+      <c r="D101" s="77"/>
+      <c r="E101" s="77"/>
+      <c r="F101" s="77"/>
+      <c r="G101" s="77"/>
+      <c r="H101" s="77"/>
+      <c r="I101" s="77"/>
+      <c r="J101" s="77"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C102" s="74"/>
-      <c r="D102" s="74"/>
-      <c r="E102" s="74"/>
-      <c r="F102" s="74"/>
-      <c r="G102" s="74"/>
-      <c r="H102" s="74"/>
-      <c r="I102" s="74"/>
-      <c r="J102" s="74"/>
+        <v>165</v>
+      </c>
+      <c r="C102" s="77"/>
+      <c r="D102" s="77"/>
+      <c r="E102" s="77"/>
+      <c r="F102" s="77"/>
+      <c r="G102" s="77"/>
+      <c r="H102" s="77"/>
+      <c r="I102" s="77"/>
+      <c r="J102" s="77"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C103" s="74"/>
-      <c r="D103" s="74"/>
-      <c r="E103" s="74"/>
-      <c r="F103" s="74"/>
-      <c r="G103" s="74"/>
-      <c r="H103" s="74"/>
-      <c r="I103" s="74"/>
-      <c r="J103" s="74"/>
+        <v>166</v>
+      </c>
+      <c r="C103" s="77"/>
+      <c r="D103" s="77"/>
+      <c r="E103" s="77"/>
+      <c r="F103" s="77"/>
+      <c r="G103" s="77"/>
+      <c r="H103" s="77"/>
+      <c r="I103" s="77"/>
+      <c r="J103" s="77"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C104" s="74"/>
-      <c r="D104" s="74"/>
-      <c r="E104" s="74"/>
-      <c r="F104" s="74"/>
-      <c r="G104" s="74"/>
-      <c r="H104" s="74"/>
-      <c r="I104" s="74"/>
-      <c r="J104" s="74"/>
+        <v>167</v>
+      </c>
+      <c r="C104" s="77"/>
+      <c r="D104" s="77"/>
+      <c r="E104" s="77"/>
+      <c r="F104" s="77"/>
+      <c r="G104" s="77"/>
+      <c r="H104" s="77"/>
+      <c r="I104" s="77"/>
+      <c r="J104" s="77"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C105" s="74"/>
-      <c r="D105" s="74"/>
-      <c r="E105" s="74"/>
-      <c r="F105" s="74"/>
-      <c r="G105" s="74"/>
-      <c r="H105" s="74"/>
-      <c r="I105" s="74"/>
-      <c r="J105" s="74"/>
+      <c r="C105" s="77"/>
+      <c r="D105" s="77"/>
+      <c r="E105" s="77"/>
+      <c r="F105" s="77"/>
+      <c r="G105" s="77"/>
+      <c r="H105" s="77"/>
+      <c r="I105" s="77"/>
+      <c r="J105" s="77"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C106" s="74"/>
-      <c r="D106" s="74"/>
-      <c r="E106" s="74"/>
-      <c r="F106" s="74"/>
-      <c r="G106" s="74"/>
-      <c r="H106" s="74"/>
-      <c r="I106" s="74"/>
-      <c r="J106" s="74"/>
+      <c r="C106" s="77"/>
+      <c r="D106" s="77"/>
+      <c r="E106" s="77"/>
+      <c r="F106" s="77"/>
+      <c r="G106" s="77"/>
+      <c r="H106" s="77"/>
+      <c r="I106" s="77"/>
+      <c r="J106" s="77"/>
     </row>
     <row r="107" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B107" s="75" t="s">
-        <v>166</v>
-      </c>
-      <c r="C107" s="74"/>
-      <c r="D107" s="74"/>
-      <c r="E107" s="74"/>
-      <c r="F107" s="74"/>
-      <c r="G107" s="74"/>
-      <c r="H107" s="74"/>
-      <c r="I107" s="74"/>
-      <c r="J107" s="74"/>
+      <c r="B107" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="C107" s="77"/>
+      <c r="D107" s="77"/>
+      <c r="E107" s="77"/>
+      <c r="F107" s="77"/>
+      <c r="G107" s="77"/>
+      <c r="H107" s="77"/>
+      <c r="I107" s="77"/>
+      <c r="J107" s="77"/>
     </row>
     <row r="108" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B108" s="75"/>
-      <c r="C108" s="74"/>
-      <c r="D108" s="74"/>
-      <c r="E108" s="74"/>
-      <c r="F108" s="74"/>
-      <c r="G108" s="74"/>
-      <c r="H108" s="74"/>
-      <c r="I108" s="74"/>
-      <c r="J108" s="74"/>
+      <c r="B108" s="78"/>
+      <c r="C108" s="77"/>
+      <c r="D108" s="77"/>
+      <c r="E108" s="77"/>
+      <c r="F108" s="77"/>
+      <c r="G108" s="77"/>
+      <c r="H108" s="77"/>
+      <c r="I108" s="77"/>
+      <c r="J108" s="77"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C109" s="74"/>
-      <c r="D109" s="74"/>
-      <c r="E109" s="74"/>
-      <c r="F109" s="74"/>
-      <c r="G109" s="74"/>
-      <c r="H109" s="74"/>
-      <c r="I109" s="74"/>
-      <c r="J109" s="74"/>
+        <v>170</v>
+      </c>
+      <c r="C109" s="77"/>
+      <c r="D109" s="77"/>
+      <c r="E109" s="77"/>
+      <c r="F109" s="77"/>
+      <c r="G109" s="77"/>
+      <c r="H109" s="77"/>
+      <c r="I109" s="77"/>
+      <c r="J109" s="77"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C110" s="77"/>
+      <c r="D110" s="77"/>
+      <c r="E110" s="77"/>
+      <c r="F110" s="77"/>
+      <c r="G110" s="77"/>
+      <c r="H110" s="77"/>
+      <c r="I110" s="77"/>
+      <c r="J110" s="77"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B111" s="79" t="s">
+        <v>172</v>
+      </c>
+      <c r="C111" s="77"/>
+      <c r="D111" s="77"/>
+      <c r="E111" s="77"/>
+      <c r="F111" s="77"/>
+      <c r="G111" s="77"/>
+      <c r="H111" s="77"/>
+      <c r="I111" s="77"/>
+      <c r="J111" s="77"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B112" s="79" t="s">
         <v>169</v>
       </c>
-      <c r="C110" s="74"/>
-      <c r="D110" s="74"/>
-      <c r="E110" s="74"/>
-      <c r="F110" s="74"/>
-      <c r="G110" s="74"/>
-      <c r="H110" s="74"/>
-      <c r="I110" s="74"/>
-      <c r="J110" s="74"/>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B111" s="76" t="s">
-        <v>170</v>
-      </c>
-      <c r="C111" s="74"/>
-      <c r="D111" s="74"/>
-      <c r="E111" s="74"/>
-      <c r="F111" s="74"/>
-      <c r="G111" s="74"/>
-      <c r="H111" s="74"/>
-      <c r="I111" s="74"/>
-      <c r="J111" s="74"/>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B112" s="76" t="s">
-        <v>167</v>
-      </c>
-      <c r="C112" s="74"/>
-      <c r="D112" s="74"/>
-      <c r="E112" s="74"/>
-      <c r="F112" s="74"/>
-      <c r="G112" s="74"/>
-      <c r="H112" s="74"/>
-      <c r="I112" s="74"/>
-      <c r="J112" s="74"/>
+      <c r="C112" s="77"/>
+      <c r="D112" s="77"/>
+      <c r="E112" s="77"/>
+      <c r="F112" s="77"/>
+      <c r="G112" s="77"/>
+      <c r="H112" s="77"/>
+      <c r="I112" s="77"/>
+      <c r="J112" s="77"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B113" s="2"/>
-      <c r="C113" s="74"/>
-      <c r="D113" s="74"/>
-      <c r="E113" s="74"/>
-      <c r="F113" s="74"/>
-      <c r="G113" s="74"/>
-      <c r="H113" s="74"/>
-      <c r="I113" s="74"/>
-      <c r="J113" s="74"/>
+      <c r="C113" s="77"/>
+      <c r="D113" s="77"/>
+      <c r="E113" s="77"/>
+      <c r="F113" s="77"/>
+      <c r="G113" s="77"/>
+      <c r="H113" s="77"/>
+      <c r="I113" s="77"/>
+      <c r="J113" s="77"/>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
-      <c r="C114" s="74"/>
-      <c r="D114" s="74"/>
-      <c r="E114" s="74"/>
-      <c r="F114" s="74"/>
-      <c r="G114" s="74"/>
-      <c r="H114" s="74"/>
-      <c r="I114" s="74"/>
-      <c r="J114" s="74"/>
+      <c r="C114" s="77"/>
+      <c r="D114" s="77"/>
+      <c r="E114" s="77"/>
+      <c r="F114" s="77"/>
+      <c r="G114" s="77"/>
+      <c r="H114" s="77"/>
+      <c r="I114" s="77"/>
+      <c r="J114" s="77"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{6A5F05FD-AB0F-4DA7-A309-CCC02F1E58FD}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{B3736947-8EBA-4CEC-9A3B-C1DDC811DD29}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{18A240CC-2882-48A7-8A97-616593C907C0}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{F8197110-0E2C-49FB-8152-BC40B5F4172D}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{1C107FDE-9299-4133-BFC6-00F8DE85B0CF}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{B347D0CC-CC51-459D-A0A9-F5D36E3B943F}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{1BFEF1F7-6438-4D3E-9DAF-40DBD4B9F064}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{00842813-8049-4D4B-ADC9-E7FA25DE160A}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{CD98E095-8B5B-4B79-A1FA-C1930292BA06}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{FD017754-C6A6-47D8-961A-E7C8CA05576C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="54" fitToHeight="0" orientation="portrait" r:id="rId6"/>
